--- a/Consolidado - Respostas Gerais.xlsx
+++ b/Consolidado - Respostas Gerais.xlsx
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="AJ2" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="3">
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="AJ3" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="4">
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="5">
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="6">
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="7">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="8">
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="9">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="10">
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="11">
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="12">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="13">
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="14">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="15">
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="16">
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="17">
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="18">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="19">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="20">
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="21">
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="22">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="23">
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="24">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="25">
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="26">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="27">
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="28">
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="29">
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="30">
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="31">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="32">
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="33">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="AJ33" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="34">
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="35">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="36">
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="AJ36" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="37">
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="38">
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="39">
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="AJ39" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="40">
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="AJ40" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="41">
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AJ41" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="42">
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="43">
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="44">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="AJ44" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="45">
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="46">
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="47">
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="48">
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="49">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="50">
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="AJ50" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="51">
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="52">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="53">
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="AJ53" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="AJ54" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="55">
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="56">
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="AJ56" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="57">
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="58">
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="AJ58" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="59">
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="AJ59" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="60">
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="AJ60" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="61">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="AJ61" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="62">
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="AJ62" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="63">
@@ -4939,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="AJ63" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="64">
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="65">
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="AJ65" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="66">
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="67">
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="AJ67" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="68">
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="AJ68" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="69">
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="AJ69" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="70">
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="AJ70" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="71">
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="AJ71" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="72">
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="AJ72" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="73">
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="AJ73" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="74">
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="AJ74" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="75">
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="AJ75" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="76">
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="AJ76" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="77">
@@ -5954,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="AJ77" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="78">
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="AJ78" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="79">
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="AJ79" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="80">
@@ -6170,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="AJ80" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="81">
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="AJ81" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="82">
@@ -6303,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="AJ82" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="83">
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="AJ83" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="84">
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="AJ84" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="85">
@@ -6495,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="AJ85" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="86">
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="AJ86" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="87">
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AJ87" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="88">
@@ -6687,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="AJ88" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="89">
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="AJ89" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="90">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="AJ90" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="91">
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="AJ91" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="92">
@@ -6953,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="AJ92" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="93">
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="AJ93" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="94">
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="AJ94" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="95">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="AJ95" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="96">
@@ -7234,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="AJ96" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="97">
@@ -7299,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="AJ97" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="98">
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="AJ98" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="99">
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="AJ99" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="100">
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="AJ100" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="101">
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="AJ101" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="102">
@@ -7627,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="AJ102" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="103">
@@ -7680,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="AJ103" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="104">
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="AJ104" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="105">
@@ -7810,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="AJ105" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="106">
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="AJ106" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="107">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="AJ107" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="108">
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AJ108" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="109">
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="AJ109" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="110">
@@ -8129,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="AJ110" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="111">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="AJ111" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="112">
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="AJ112" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="113">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="AJ113" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="114">
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="AJ114" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="115">
@@ -8457,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="AJ115" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="116">
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="AJ116" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="117">
@@ -8584,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="AJ117" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="118">
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="AJ118" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="119">
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="AJ119" t="str">
-        <v>MANEJO DE NUTRIENTES E AGUA</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="120">
@@ -8809,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="AJ120" t="str">
-        <v>MANEJO ECOFISIOLÓGICO E NUTRICIONAL DA CITRICULTURA DE ALTA PERFORMANCE</v>
+        <v>citros e cana</v>
       </c>
     </row>
     <row r="121">
@@ -8904,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="AJ121" t="str">
-        <v>BIOINSUMOS</v>
+        <v>solos</v>
       </c>
     </row>
     <row r="122">
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="AJ123" t="str">
-        <v>BIOINSUMOS</v>
+        <v>solos</v>
       </c>
     </row>
     <row r="124">
@@ -9177,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="AJ124" t="str">
-        <v>BIOINSUMOS</v>
+        <v>solos</v>
       </c>
     </row>
     <row r="125">
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="AJ125" t="str">
-        <v>BIOINSUMOS</v>
+        <v>solos</v>
       </c>
     </row>
     <row r="126">
@@ -9367,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="AJ126" t="str">
-        <v>BIOINSUMOS</v>
+        <v>solos</v>
       </c>
     </row>
     <row r="127">
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="AJ127" t="str">
-        <v>BIOINSUMOS</v>
+        <v>solos</v>
       </c>
     </row>
     <row r="128">
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="AJ128" t="str">
-        <v>BIOINSUMOS</v>
+        <v>solos</v>
       </c>
     </row>
   </sheetData>
